--- a/medicine/Enfance/Baby-sitter,_l'horreur_!/Baby-sitter,_l'horreur_!.xlsx
+++ b/medicine/Enfance/Baby-sitter,_l'horreur_!/Baby-sitter,_l'horreur_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baby-sitter,_l%27horreur_!</t>
+          <t>Baby-sitter,_l'horreur_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baby-sitter, l'horreur ! est un roman français pour la jeunesse de Fanny Joly paru pour la première fois dans le magazine Je bouquine no 134 en avril 1995 avec de nombreuses illustrations de François Avril.
 Portant ensuite le no 230 dans la collection « Délires » chez Bayard, il a été édité avec une couverture signée Matthieu Blanchin (les quelques illustrations intérieures restant celle de François Avril) puis réédité avec une couverture et des illustrations intérieures de Catel.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baby-sitter,_l%27horreur_!</t>
+          <t>Baby-sitter,_l'horreur_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marion veut s'offrir un lecteur de CD mais son père lui dit qu'il faut travailler… à l'école ! Sur les conseils de son frère Charles, l'adolescente préfère chercher un emploi rémunéré. Elle passe alors une petite annonce et décroche son tout premier job, celui de baby-sitter.
 Mais l'enfant qu'elle doit garder, Barnabé, lui en fait voir de toutes les couleurs.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baby-sitter,_l%27horreur_!</t>
+          <t>Baby-sitter,_l'horreur_!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marion Girardon
-Héroïne de l'histoire, elle rêve d'écouter des CD sur son propre lecteur[1]. Pour cela, elle doit d'abord gagner de l'argent et le baby-sitting lui semble la meilleure solution.
+Héroïne de l'histoire, elle rêve d'écouter des CD sur son propre lecteur. Pour cela, elle doit d'abord gagner de l'argent et le baby-sitting lui semble la meilleure solution.
 Camille
-La meilleure amie de Marion, elle a un père producteur de disques mais n'en écoute que lorsqu'elle est avec sa camarade[2]. Elle possède un talent de dessinatrice et une grande créativité, qui lui permettent d'aider Marion à réaliser un petit livret dans lequel cette dernière vante ses mérites en tant que baby-sitter d'exception.
+La meilleure amie de Marion, elle a un père producteur de disques mais n'en écoute que lorsqu'elle est avec sa camarade. Elle possède un talent de dessinatrice et une grande créativité, qui lui permettent d'aider Marion à réaliser un petit livret dans lequel cette dernière vante ses mérites en tant que baby-sitter d'exception.
 Barnabé
 Surnommé « bébé d'amour » par sa mère, il s'agit en fait d'un petit garçon assez grand et dissipé pour rendre folle toutes celles qui acceptent de le garder.
 Priscilla Plessis-Crusot
